--- a/csv-data/서울시구별위도경도.xlsx
+++ b/csv-data/서울시구별위도경도.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaa77\PycharmProjects\csv-data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951FAA37-D95C-40F6-AD6D-6990E7360B74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18315" windowHeight="11670"/>
+    <workbookView xWindow="2280" yWindow="930" windowWidth="11250" windowHeight="9870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>중구</t>
   </si>
@@ -94,13 +100,25 @@
   </si>
   <si>
     <t>126..485858</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구별</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lng</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lat</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -163,6 +181,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -210,7 +231,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,9 +264,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,6 +316,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -453,362 +508,376 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B1">
-        <v>10961</v>
-      </c>
-      <c r="C1" s="1">
-        <v>37.575557799999999</v>
-      </c>
-      <c r="D1" s="1">
-        <v>126.9848674</v>
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>10810</v>
+        <v>10961</v>
       </c>
       <c r="C2" s="1">
-        <v>37.554758399999997</v>
+        <v>37.575557799999999</v>
       </c>
       <c r="D2" s="1">
-        <v>126.9734981</v>
+        <v>126.9848674</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>6993</v>
+        <v>10810</v>
       </c>
       <c r="C3" s="1">
-        <v>37.538709900000001</v>
+        <v>37.554758399999997</v>
       </c>
       <c r="D3" s="1">
-        <v>126.9659183</v>
+        <v>126.9734981</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>5794</v>
+        <v>6993</v>
       </c>
       <c r="C4" s="1">
-        <v>37.561730900000001</v>
+        <v>37.538709900000001</v>
       </c>
       <c r="D4" s="1">
-        <v>127.0363806</v>
+        <v>126.9659183</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>7024</v>
+        <v>5794</v>
       </c>
       <c r="C5" s="1">
-        <v>37.542873</v>
+        <v>37.561730900000001</v>
       </c>
       <c r="D5" s="1">
-        <v>127.083821</v>
+        <v>127.0363806</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>8130</v>
+        <v>7024</v>
       </c>
       <c r="C6" s="1">
-        <v>37.585061499999902</v>
+        <v>37.542873</v>
       </c>
       <c r="D6" s="1">
-        <v>127.0457679</v>
+        <v>127.083821</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>6195</v>
+        <v>8130</v>
       </c>
       <c r="C7" s="1">
-        <v>37.618692000000003</v>
+        <v>37.585061499999902</v>
       </c>
       <c r="D7" s="1">
-        <v>127.1047136</v>
+        <v>127.0457679</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>6852</v>
+        <v>6195</v>
       </c>
       <c r="C8" s="1">
-        <v>37.602059199999999</v>
+        <v>37.618692000000003</v>
       </c>
       <c r="D8" s="1">
-        <v>127.0321577</v>
+        <v>127.1047136</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>6280</v>
+        <v>6852</v>
       </c>
       <c r="C9" s="1">
-        <v>37.637303899999999</v>
+        <v>37.602059199999999</v>
       </c>
       <c r="D9" s="1">
-        <v>127.0273399</v>
+        <v>127.0321577</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>4682</v>
+        <v>6280</v>
       </c>
       <c r="C10" s="1">
-        <v>37.653358900000001</v>
+        <v>37.637303899999999</v>
       </c>
       <c r="D10" s="1">
-        <v>127.052682</v>
+        <v>127.0273399</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11">
-        <v>7248</v>
+        <v>4682</v>
       </c>
       <c r="C11" s="1">
-        <v>37.642523799999999</v>
+        <v>37.653358900000001</v>
       </c>
       <c r="D11" s="1">
-        <v>127.0717076</v>
+        <v>127.052682</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>6801</v>
+        <v>7248</v>
       </c>
       <c r="C12" s="1">
-        <v>37.628359699999997</v>
+        <v>37.642523799999999</v>
       </c>
       <c r="D12" s="1">
-        <v>126.9287226</v>
+        <v>127.0717076</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>6689</v>
+        <v>6801</v>
       </c>
       <c r="C13" s="1">
-        <v>37.564784799999998</v>
+        <v>37.628359699999997</v>
       </c>
       <c r="D13" s="1">
-        <v>126.9667762</v>
+        <v>126.9287226</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>12433</v>
+        <v>6689</v>
       </c>
       <c r="C14" s="1">
-        <v>37.550814000000003</v>
+        <v>37.564784799999998</v>
       </c>
       <c r="D14" s="1">
-        <v>126.95402799999999</v>
+        <v>126.9667762</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>6220</v>
+        <v>12433</v>
       </c>
       <c r="C15" s="1">
-        <v>37.516566699999998</v>
+        <v>37.550814000000003</v>
       </c>
       <c r="D15" s="1">
-        <v>126.8656763</v>
+        <v>126.95402799999999</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>10340</v>
+        <v>6220</v>
       </c>
       <c r="C16" s="1">
-        <v>37.334443999999998</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
+        <v>37.516566699999998</v>
+      </c>
+      <c r="D16" s="1">
+        <v>126.8656763</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B17">
-        <v>7535</v>
+        <v>10340</v>
       </c>
       <c r="C17" s="1">
-        <v>37.494931000000001</v>
-      </c>
-      <c r="D17" s="1">
-        <v>126.886731</v>
+        <v>37.334443999999998</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B18">
-        <v>5420</v>
+        <v>7535</v>
       </c>
       <c r="C18" s="1">
-        <v>37.456872199999999</v>
+        <v>37.494931000000001</v>
       </c>
       <c r="D18" s="1">
-        <v>126.8970429</v>
+        <v>126.886731</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B19">
-        <v>11296</v>
+        <v>5420</v>
       </c>
       <c r="C19" s="1">
-        <v>37.517983899999997</v>
+        <v>37.456872199999999</v>
       </c>
       <c r="D19" s="1">
-        <v>126.90750559999999</v>
+        <v>126.8970429</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>5785</v>
+        <v>11296</v>
       </c>
       <c r="C20" s="1">
-        <v>37.513086600000001</v>
+        <v>37.517983899999997</v>
       </c>
       <c r="D20" s="1">
-        <v>126.9428498</v>
+        <v>126.90750559999999</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B21">
-        <v>8075</v>
+        <v>5785</v>
       </c>
       <c r="C21" s="1">
-        <v>37.474378899999998</v>
+        <v>37.513086600000001</v>
       </c>
       <c r="D21" s="1">
-        <v>126.9509748</v>
+        <v>126.9428498</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>12359</v>
+        <v>8075</v>
       </c>
       <c r="C22" s="1">
-        <v>37.495605400000002</v>
+        <v>37.474378899999998</v>
       </c>
       <c r="D22" s="1">
-        <v>127.00525039999999</v>
+        <v>126.9509748</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B23">
-        <v>20736</v>
+        <v>12359</v>
       </c>
       <c r="C23" s="1">
-        <v>37.509435199999999</v>
+        <v>37.495605400000002</v>
       </c>
       <c r="D23" s="1">
-        <v>127.0669578</v>
+        <v>127.00525039999999</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B24">
-        <v>13095</v>
+        <v>20736</v>
       </c>
       <c r="C24" s="1">
-        <v>37.501906499999997</v>
+        <v>37.509435199999999</v>
       </c>
       <c r="D24" s="1">
-        <v>127.12715129999999</v>
+        <v>127.0669578</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>13095</v>
+      </c>
+      <c r="C25" s="1">
+        <v>37.501906499999997</v>
+      </c>
+      <c r="D25" s="1">
+        <v>127.12715129999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
         <v>18</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>7596</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26" s="1">
         <v>37.528511000000002</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D26" s="1">
         <v>127.12682239999999</v>
       </c>
     </row>
@@ -820,12 +889,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -833,14 +902,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>